--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D72019-C587-4EA9-87EB-EFEF7F0AD2C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{20945E73-8BBF-4259-B5C5-80043AF91511}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>domaaoo</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>dominikaa</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,12 +78,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -395,28 +402,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8935F8F-FDF5-4D56-8D01-316DAE247751}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.046875" customWidth="true"/>
+    <col min="2" max="2" width="14.6015625" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>domaaoo</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>dominikaa</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>domaaoo</t>
+  </si>
+  <si>
+    <t>dominikaa</t>
+  </si>
+  <si>
+    <t>piotr</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
   </si>
 </sst>
 </file>
@@ -70,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -80,14 +95,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -402,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8935F8F-FDF5-4D56-8D01-316DAE247751}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -410,32 +427,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.046875" customWidth="true"/>
+    <col min="1" max="1" width="9.6015625" customWidth="true"/>
     <col min="2" max="2" width="14.6015625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>domaaoo</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>dominikaa</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>domaaoo</t>
+  </si>
+  <si>
+    <t>dominikaa</t>
+  </si>
+  <si>
+    <t>piotr</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
   </si>
   <si>
     <t>Nick</t>
@@ -85,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -96,15 +111,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -419,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8935F8F-FDF5-4D56-8D01-316DAE247751}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -433,15 +450,15 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0">
         <v>5</v>
@@ -449,7 +466,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0">
         <v>3</v>
@@ -457,10 +474,18 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
